--- a/Warehouse/AD/judgement_logs_run4o.xlsx
+++ b/Warehouse/AD/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, leading to a no-decision situation.
+MSG: No decision has been made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not arrive at a choice for Friday's movie, so the outcome is recorded as no decision being made.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The rights for "Oppenheimer" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made, and thus, I have recorded a no_decision.
+MSG: The decision has been recorded as no consensus was reached regarding a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show both movies has been recorded.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The function for no decision has been called. No movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for the movie "Barbie" have been acquired.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected.
+MSG: The decision about which movie to show on Friday has resulted in no conclusion being reached.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Oppenheimer" has been successfully recorded.
+MSG: The decision has been recorded, and "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for showing on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made, and the committee has not reached a consensus. Thus, I have recorded the outcome as no decision being reached.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie was made.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday ended without a conclusion, and no movie was selected.
+MSG: The decision has been recorded as no movie was selected during the committee's discussion.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has concluded without a specific selection. Therefore, no movie will be acquired.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as a no decision.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie was made.
+MSG: The decision-making process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision," indicating that the committee did not reach a consensus on which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached on the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for the assembly.
+MSG: The decision has been recorded and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not lead to a decision about which movie to show on Friday.
+MSG: The decision has been made with no clear choice of a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision-making process did not result in an agreement about which movie to show on Friday. Therefore, the outcome is classified as a "no decision."
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result of the committee's discussion is that no decision can be made about the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made.
+MSG: The decision resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The call to the no_decision function has been successfully made, indicating that no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights to "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about the movie for Friday.
+MSG: The decision process concluded without an agreement on the movie for Friday, so no acquisition is made.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement, and thus no movie has been selected.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has concluded without a selection being made.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire has resulted in no decision being made.
+MSG: The decision resulted in no movie being selected for Friday. If you have any further questions or need assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie".
+MSG: The decision has been recorded to acquire rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday resulted in no agreement being reached.
+MSG: The decision process ended without a clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not made a decision about the movie to show on Friday, so the outcome is recorded as no decision.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision regarding the movie for Friday was not made, so no action is recorded.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for Friday's movie screening.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that there is no agreement on what movie to show on Friday.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has been recorded as no decision.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision" since the committee did not come to a conclusion about which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on Friday's movie could not be made, as the committee did not reach a consensus.
+MSG: The decision has been recorded as no selection for the movie at this time.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision-making process did not result in a choice of movie for Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday did not conclude with an agreement.
+MSG: The decision has been recorded as no decision made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as no decision.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without arriving at a specific movie choice for Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a definitive choice for Friday's movie, resulting in no decision being made.
+MSG: The rights to both "Oppenheimer" and "Barbie" have been successfully acquired for the Friday screening.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
+MSG: The decision has been recorded as no agreement was reached regarding which movie to select for Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no_decision.
+MSG: The decision has been recorded as no decision regarding the movie for Friday's showing.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The committee has decided to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, so the outcome is recorded as a no decision.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The decision has been recorded as "no decision".
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to play on Friday was not made.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision process concluded without a definitive selection for a movie to show on Friday. Hence, the status is recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process for selecting a movie has concluded without a clear choice being made.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not finalized, leading to no acquisition decision.
+MSG: The decision regarding the movie to be shown on Friday ended without a clear agreement, resulting in no movie being selected.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not reached.
+MSG: The decision about which movie to show on Friday has been recorded as having no consensus.
 </t>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie selection for Friday.
+MSG: The decision to acquire a movie has not been made, so there will be no selection for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/AD/judgement_logs_run4o.xlsx
+++ b/Warehouse/AD/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;43;05.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;36;08.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision has been made about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;41;56.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;43;05.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The committee did not reach a decision about which movie to show on Friday, so no action will be taken.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;01;54.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;32;56.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Oppenheimer" have been successfully acquired.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;52;15.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;41;56.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding a movie to show on Friday.
+MSG: No decision about Friday’s movie was made.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;22;37.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;13;36.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision has been recorded, and no further action is required regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;27;27.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;01;54.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;58;39.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;52;15.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation ended without a clear decision on a movie for Friday, so my final decision is to call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;32;50.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;22;37.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called. No movie has been selected for Friday.
+MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;06;08.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;27;27.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;06;39.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;34;11.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no conclusion being reached.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;29;02.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;58;39.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Oppenheimer" will be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;52;53.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;32;50.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;58;02.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;10;07.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;51;28.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;06;08.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;26;42.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;06;39.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday was not reached.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;25;57.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;33;27.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the committee's discussion.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;41;56.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;09;05.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;16;22.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;29;02.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;30;11.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;52;53.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a selection for Friday's movie.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;47;14.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;58;02.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached on the movie selection for Friday.
+MSG: The decision process for selecting a movie has concluded without arriving at an agreement.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_09;00;20.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;32;36.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights for "Barbie" have been acquired.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;37;47.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;51;28.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made with no clear choice of a movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;42;46.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;26;42.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in an agreement about which movie to show on Friday. Therefore, the outcome is classified as a "no decision."
+MSG: The decision process has concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;02;32.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;25;57.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision about which movie to show on Friday has ended without an agreement.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;37;28.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;41;56.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on a movie for Friday.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;31;58.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;16;22.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: The decision-making process ended without a choice of movie for Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;41;11.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;30;11.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: It appears that no decision was made regarding the movie to be shown on Friday. If you have any further questions or need assistance with something else, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;15;18.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;47;14.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The call to the no_decision function has been successfully made, indicating that no decision was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;36;22.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_09;00;20.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie for Friday.
+MSG: The decision has been recorded, and the chosen movie is "Barbie."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;23;25.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;36;23.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;20;22.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;35;04.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on the movie for Friday, so no acquisition is made.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;39;38.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;37;47.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;04;46.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;42;46.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision to acquire rights for both "Barbie" and "Oppenheimer" has been made.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;24;58.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;02;32.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision of which movie to show on Friday has not been finalized, resulting in no choice being made.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;38;40.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;12;02.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;44;09.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;37;28.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no movie being selected for Friday. If you have any further questions or need assistance, feel free to ask!
+MSG: The decision process concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;46;30.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;31;58.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;56;59.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;41;11.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;05;28.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;15;18.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a clear agreement on which movie to show on Friday.
+MSG: The decision has been recorded as no decision was made about which movie to play on Friday.
 </t>
         </is>
       </c>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;54;13.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;40;31.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made successfully.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;34;26.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;39;03.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not made, so no action is recorded.
+MSG: The decision regarding which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;23;58.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;10;46.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;40;18.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;36;22.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no agreement.
+MSG: The decision regarding which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;53;34.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;23;25.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The rights to "Barbie" have been successfully acquired for the screening.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;03;49.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;20;22.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision has been recorded as "no_decision." No movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;31;06.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;39;38.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection for the movie at this time.
+MSG: The decision-making process did not result in a vote for a movie, so I cannot finalize a selection.
 </t>
         </is>
       </c>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;56;00.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;05;49.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a choice of movie for Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;59;20.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;12;54.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision made regarding Friday's movie.
+MSG: I have chosen to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;01;20.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;04;46.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached on which movie to show.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;10;31.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;24;58.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The rights to both movies have been acquired for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;16;58.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;38;40.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;04;55.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;44;09.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+MSG: The decision has been recorded, indicating that no movie was chosen during the meeting.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;48;38.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;39;53.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;03;53.json</t>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_14;48;18.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both "Oppenheimer" and "Barbie" have been successfully acquired for the Friday screening.
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;39;33.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;46;30.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding which movie to select for Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;02;37.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;56;59.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1688,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;50;32.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;05;28.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday's showing.
+MSG: The decision about which movie to show on Friday ended without a conclusion. Therefore, the call to the no_decision function was appropriate.
 </t>
         </is>
       </c>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;41;12.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;29;14.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision regarding the movie to be shown on Friday ended without a selection.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;49;54.json</t>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;32;10.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show "Barbie" on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1754,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;21;53.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;14;22.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;33;32.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;54;13.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision".
+MSG: The decision-making process has concluded without a definitive choice for Friday's movie. Therefore, no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;35;28.json</t>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;08;07.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision-making process concluded without a choice of movie for Friday.
 </t>
         </is>
       </c>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;49;15.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;34;26.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive selection for a movie to show on Friday. Hence, the status is recorded as "no decision."
+MSG: The decision process ended without a clear choice for Friday's movie, indicating that no agreement was reached.
 </t>
         </is>
       </c>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;36;41.json</t>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;23;58.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the discussion.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1864,13 +1864,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;55;40.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;40;18.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;19;04.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;53;34.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday ended without a clear agreement, resulting in no movie being selected.
+MSG: The decision has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1908,13 +1908,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;45;42.json</t>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;03;49.json</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been recorded as having no consensus.
+MSG: The decision was made that there will be no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1930,17 +1930,722 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;31;06.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding Friday's movie has resulted in no selection.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;35;13.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;31;33.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a definitive agreement on which movie to show on Friday, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;56;00.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;37;38.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;38;06.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been selected for Friday's screening.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_08;59;20.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;01;20.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_14;47;15.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;10;31.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no resolution was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;16;58.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a no decision, indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;04;55.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and there is no movie selected for Friday based on the current conversation.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;48;38.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_28_2025 at_11;03;53.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no definitive movie selection was made.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;39;33.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no consensus was reached regarding the selection of a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_10;02;37.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully made.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;50;32.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no decision was made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;41;12.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie that will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;31;02.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;49;54.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;21;53.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: None
+MSG: No decision was made regarding the movie.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;33;32.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;24;27.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday’s movie can be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;35;28.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;49;15.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_11_2025 at_18;41;26.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded; the movie "Barbie" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;36;41.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;55;40.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding Friday's movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_04_29_2025 at_12;19;04.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday could not be made, as there was no clear agreement.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_16_2025 at_10;06;51.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision," indicating that the committee did not reach a conclusion on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_08_12_2025 at_18;29;56.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been processed successfully.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;45;42.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without selecting a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>./Warehouse/AD/run4o_discovery_05_01_2025 at_09;44;54.json</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie has not been made, so there will be no selection for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
